--- a/OnBoard/output/trust/catch/Catch_Trust_45BIS.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_45BIS.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.027</v>
+        <v>0.02</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.036</v>
+        <v>0.005</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,16 +519,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Blennius ocellaris</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.049</v>
+        <v>0.01</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,19 +560,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Eledone moschata</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="G5">
-        <v>0.005</v>
+        <v>0.398</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,19 +601,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chlamys glabra</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.361</v>
+        <v>0.073</v>
       </c>
       <c r="H6">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -622,7 +622,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -642,19 +642,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eledone moschata</t>
+          <t>Scorpaena notata</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="G7">
-        <v>0.277</v>
+        <v>0.022</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -663,7 +663,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -683,19 +683,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.02</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -719,21 +719,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Deltentosteus(Gobius )quadrimaculatus</t>
+          <t>Alloteuthis media</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>GOBIQUA</t>
+          <t>ALLOMED</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.003</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -745,7 +745,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -760,21 +760,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G10">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -786,7 +786,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -801,24 +801,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Monochirus hispidus</t>
+          <t>Arnoglossus thori</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MONOHIS</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.025</v>
+        <v>0.022</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -827,7 +827,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -842,24 +842,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.9389999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="H12">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -883,24 +883,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Eledone moschata</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="G13">
-        <v>2.167</v>
+        <v>0.114</v>
       </c>
       <c r="H13">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -909,7 +909,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -924,24 +924,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.02</v>
+        <v>0.064</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -950,7 +950,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -965,24 +965,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G15">
-        <v>0.215</v>
+        <v>0.032</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -991,7 +991,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Serranus hepatus</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.036</v>
+        <v>0.023</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1032,7 +1032,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1052,19 +1052,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.172</v>
+        <v>0.27</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1088,24 +1088,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.018</v>
+        <v>1.034</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1114,7 +1114,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1134,16 +1134,16 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.022</v>
+        <v>0.074</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1155,7 +1155,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1175,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Chlamys glabra</t>
+          <t>Pecten jacobaeus</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="G20">
-        <v>1.082</v>
+        <v>0.047</v>
       </c>
       <c r="H20">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1216,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eledone moschata</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.25</v>
+        <v>0.243</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1237,7 +1237,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1257,349 +1257,21 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.055</v>
+        <v>0.419</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>45bis</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Melicertus kerathurus</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>0.015</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>45bis</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Monochirus hispidus</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>MONOHIS</t>
-        </is>
-      </c>
-      <c r="G24">
-        <v>0.005</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>45bis</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Bolinus brandaris</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>MUREBRA</t>
-        </is>
-      </c>
-      <c r="G25">
-        <v>0.773</v>
-      </c>
-      <c r="H25">
-        <v>309</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>45bis</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Ostrea edulis</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>OSTREDU</t>
-        </is>
-      </c>
-      <c r="G26">
-        <v>2.627</v>
-      </c>
-      <c r="H26">
-        <v>309</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>45bis</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Scorpaena notata</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>SCORNOT</t>
-        </is>
-      </c>
-      <c r="G27">
-        <v>0.006</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>45bis</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Sepia officinalis</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>SEPIOFF</t>
-        </is>
-      </c>
-      <c r="G28">
-        <v>0.337</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>45bis</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Serranus hepatus</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>SERAHEP</t>
-        </is>
-      </c>
-      <c r="G29">
-        <v>0.064</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>45bis</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Solea solea</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="G30">
-        <v>1.011</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
         <v>1</v>
       </c>
     </row>
